--- a/doc/auth.xlsx
+++ b/doc/auth.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,15 +207,6 @@
     <t>0907180388</t>
   </si>
   <si>
-    <t xml:space="preserve">Lothihue </t>
-  </si>
-  <si>
-    <t xml:space="preserve">haisam </t>
-  </si>
-  <si>
-    <t>vitran</t>
-  </si>
-  <si>
     <t>luongvidiep</t>
   </si>
   <si>
@@ -228,9 +219,6 @@
     <t>0969344566</t>
   </si>
   <si>
-    <t>08325135020</t>
-  </si>
-  <si>
     <t>0981230391</t>
   </si>
   <si>
@@ -241,18 +229,44 @@
   </si>
   <si>
     <t>0365714672</t>
+  </si>
+  <si>
+    <t>haisam</t>
+  </si>
+  <si>
+    <t>Lothihue</t>
+  </si>
+  <si>
+    <t>vitran1</t>
+  </si>
+  <si>
+    <t>8325135020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,17 +337,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -612,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -931,10 +947,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -942,10 +958,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -953,10 +969,10 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -964,10 +980,10 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -975,10 +991,10 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -986,10 +1002,10 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
